--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodigi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodigi\filedownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C40FEC-4F49-4B3A-9D9B-F9A07AB359E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -79,9 +78,6 @@
     <t xml:space="preserve">Rp </t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
     <t>Rp</t>
   </si>
   <si>
@@ -94,9 +90,6 @@
     <t>Share Partner</t>
   </si>
   <si>
-    <t>Share Prodigi</t>
-  </si>
-  <si>
     <t>Revenue Artis</t>
   </si>
   <si>
@@ -106,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
@@ -228,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -297,21 +290,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -468,7 +446,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,9 +479,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -511,26 +491,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,7 +516,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +525,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,16 +533,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 11" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 12" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 19" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 20" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 11" xfId="3"/>
+    <cellStyle name="Normal 12" xfId="4"/>
+    <cellStyle name="Normal 15" xfId="5"/>
+    <cellStyle name="Normal 19" xfId="6"/>
+    <cellStyle name="Normal 20" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 5" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,23 +633,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -708,23 +668,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -900,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:V154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1051,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1127,11 +1070,11 @@
     <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1145,11 +1088,11 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="33" t="s">
-        <v>22</v>
+      <c r="D15" s="32" t="s">
+        <v>21</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="5"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22" t="s">
@@ -1164,14 +1107,14 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="33" t="s">
-        <v>23</v>
+      <c r="D16" s="25" t="s">
+        <v>22</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="5"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="19"/>
@@ -1180,18 +1123,18 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="26" t="s">
-        <v>24</v>
+      <c r="D17" s="32" t="s">
+        <v>23</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="5"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="29" t="s">
-        <v>19</v>
+      <c r="I17" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="2"/>
@@ -1202,118 +1145,124 @@
     <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="19"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="2"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="20"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="25" t="s">
-        <v>19</v>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="24" t="s">
+        <v>18</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1325,33 +1274,26 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
-        <v>12</v>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1367,9 +1309,7 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1416,36 +1356,36 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+    <row r="29" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="35"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="36"/>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3420,34 +3360,17 @@
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B21:V21"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B22:V22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B23:L23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -94,6 +95,39 @@
   </si>
   <si>
     <t>Revenue Pencipta</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Pencipta</t>
+  </si>
+  <si>
+    <t>Marketing Chanel</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Nama Chanel Marketing</t>
+  </si>
+  <si>
+    <t>Revenue Prodigi</t>
+  </si>
+  <si>
+    <t>SharePartner</t>
+  </si>
+  <si>
+    <t>Royalti Artis</t>
+  </si>
+  <si>
+    <t>Royalti Pencipta</t>
+  </si>
+  <si>
+    <t>ShareProdigi</t>
   </si>
 </sst>
 </file>
@@ -221,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -431,6 +465,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -446,7 +495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,6 +580,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -844,14 +894,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V153"/>
+  <dimension ref="B3:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
@@ -1047,7 +1098,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
@@ -1067,18 +1118,20 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="18"/>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1088,72 +1141,76 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="19"/>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="19"/>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="19"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18"/>
       <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="20"/>
+      <c r="D18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="19"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="15"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1161,184 +1218,191 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="D19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="19"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="24" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1356,20 +1420,18 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="35"/>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1424,16 +1486,20 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="35"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3360,20 +3426,156 @@
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
     </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D15:F15"/>
+  <mergeCells count="10">
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B21:V21"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -118,22 +118,16 @@
     <t>Revenue Prodigi</t>
   </si>
   <si>
-    <t>SharePartner</t>
+    <t>Total trafic</t>
   </si>
   <si>
-    <t>Royalti Artis</t>
-  </si>
-  <si>
-    <t>Royalti Pencipta</t>
-  </si>
-  <si>
-    <t>ShareProdigi</t>
+    <t>total revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
@@ -541,6 +535,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,7 +575,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -1181,11 +1175,11 @@
     <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
@@ -1199,11 +1193,11 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
@@ -1237,11 +1231,11 @@
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
@@ -1256,11 +1250,11 @@
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="5"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23" t="s">
@@ -1275,11 +1269,11 @@
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="6"/>
       <c r="J22" s="20"/>
       <c r="K22" s="2"/>
@@ -1332,29 +1326,29 @@
       <c r="V24" s="7"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -1380,19 +1374,19 @@
       <c r="V26" s="7"/>
     </row>
     <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -1496,10 +1490,10 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3511,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,57 +3516,44 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="G1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="H1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="I1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="J1" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Note : Apabila dalam jangka waktu 7 hari tidak ada konfirmasi, maka kami akan melakukan pembayaran sesuai   dengan nilai tersebut diatas.</t>
-  </si>
-  <si>
-    <t>Ary Lazuardi</t>
   </si>
   <si>
     <t>Artis</t>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>total revenue</t>
+  </si>
+  <si>
+    <t>Ary Lazuardi</t>
   </si>
 </sst>
 </file>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V157"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1076,7 +1076,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -1096,7 +1096,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1116,7 +1116,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -1136,7 +1136,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -1156,7 +1156,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -1194,14 +1194,14 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="35"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="2"/>
@@ -1213,14 +1213,14 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="27"/>
       <c r="G19" s="5"/>
       <c r="H19" s="21"/>
       <c r="I19" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="2"/>
@@ -1232,14 +1232,14 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="2"/>
@@ -1251,14 +1251,14 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="35"/>
       <c r="G21" s="5"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="2"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1309,7 +1309,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1491,7 +1491,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="36"/>
       <c r="K33" s="2"/>
@@ -3507,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3526,34 +3526,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BA" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$34</definedName>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -890,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3508,7 +3512,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,5 +3562,242 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -9,25 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="5"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
   </bookViews>
   <sheets>
-    <sheet name="BA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="BA Artis" sheetId="1" r:id="rId1"/>
+    <sheet name="BA Pencipta" sheetId="2" r:id="rId2"/>
+    <sheet name="BA Partner" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BA!$B$3:$V$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BA Artis'!$B$3:$V$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -125,13 +128,37 @@
     <t>total revenue</t>
   </si>
   <si>
-    <t>Ary Lazuardi</t>
+    <t>BILLINGCYCLE</t>
+  </si>
+  <si>
+    <t>CONTENTID</t>
+  </si>
+  <si>
+    <t>VASCODE</t>
+  </si>
+  <si>
+    <t>SUBSTYPE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>Restu Mahardani</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Operator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
@@ -493,7 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,6 +567,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V157"/>
+  <dimension ref="B3:V158"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,11 +1218,15 @@
     <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31"/>
+      <c r="D17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="35"/>
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
@@ -1197,11 +1240,9 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
@@ -1216,9 +1257,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="26"/>
       <c r="F19" s="27"/>
       <c r="G19" s="5"/>
@@ -1235,11 +1274,9 @@
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
@@ -1254,11 +1291,9 @@
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="5"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23" t="s">
@@ -1273,11 +1308,2645 @@
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B26:V26"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="D20:F20"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="6"/>
       <c r="J22" s="20"/>
       <c r="K22" s="2"/>
@@ -1315,92 +3984,92 @@
       <c r="I24" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
     </row>
     <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1486,7 +4155,7 @@
     </row>
     <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1494,10 +4163,10 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="36"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3490,77 +6159,17 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="B27:L27"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="D20:F20"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3568,10 +6177,2625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="B3:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+    </row>
+    <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="40"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:H22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,35 +8812,53 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3625,12 +8867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,94 +8889,53 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3745,55 +8946,274 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>27</v>
       </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
+      <c r="J1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="E1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="O1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>29</v>
       </c>
     </row>

--- a/filedownload/TemplateLoadExport.xlsx
+++ b/filedownload/TemplateLoadExport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BA Artis" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="38">
   <si>
     <t>PT. MEDIA MUSIK PROAKTIF</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Share Partner</t>
-  </si>
-  <si>
-    <t>Revenue Artis</t>
-  </si>
-  <si>
-    <t>Revenue Pencipta</t>
   </si>
   <si>
     <t>Partner</t>
@@ -520,7 +511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,6 +558,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -1179,7 +1179,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -1199,7 +1199,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -1218,15 +1218,15 @@
     <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="35"/>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
@@ -1240,9 +1240,9 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
@@ -1274,9 +1274,9 @@
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
@@ -1308,9 +1308,9 @@
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="5"/>
       <c r="H22" s="21"/>
       <c r="I22" s="23" t="s">
@@ -1325,11 +1325,11 @@
     <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="6"/>
       <c r="J23" s="20"/>
       <c r="K23" s="2"/>
@@ -1382,29 +1382,29 @@
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
@@ -1430,19 +1430,19 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1546,10 +1546,10 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="40"/>
+      <c r="J34" s="43"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3561,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V157"/>
+  <dimension ref="B3:V158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3789,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -3809,7 +3809,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -3829,7 +3829,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -3848,11 +3848,15 @@
     <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
@@ -3866,11 +3870,9 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
@@ -3885,11 +3887,9 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="5"/>
       <c r="H19" s="21"/>
       <c r="I19" s="28" t="s">
@@ -3904,11 +3904,9 @@
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
@@ -3923,11 +3921,9 @@
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="5"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23" t="s">
@@ -3942,155 +3938,154 @@
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="15"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="24" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-    </row>
-    <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+    </row>
+    <row r="28" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4106,7 +4101,9 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4153,36 +4150,36 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="40"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="43"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -6157,18 +6154,34 @@
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
     </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="I34:J34"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B26:V26"/>
+    <mergeCell ref="B28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6177,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V157"/>
+  <dimension ref="B3:V158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6405,7 +6418,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -6425,7 +6438,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
@@ -6445,7 +6458,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -6464,11 +6477,15 @@
     <row r="17" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="38"/>
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
@@ -6482,11 +6499,9 @@
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="5"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22" t="s">
@@ -6501,11 +6516,9 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="5"/>
       <c r="H19" s="21"/>
       <c r="I19" s="28" t="s">
@@ -6520,11 +6533,9 @@
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="5"/>
       <c r="H20" s="21"/>
       <c r="I20" s="23" t="s">
@@ -6539,11 +6550,9 @@
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="5"/>
       <c r="H21" s="21"/>
       <c r="I21" s="23" t="s">
@@ -6558,155 +6567,154 @@
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="20"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="15"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="24" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-    </row>
-    <row r="27" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+    </row>
+    <row r="28" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -6722,7 +6730,9 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -6769,36 +6779,36 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="40"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+    <row r="34" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="43"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -8773,18 +8783,34 @@
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
     </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B26:V26"/>
+    <mergeCell ref="B28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8814,52 +8840,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8891,52 +8917,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8974,52 +9000,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9039,52 +9065,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9104,52 +9130,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9169,52 +9195,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
